--- a/biology/Histoire de la zoologie et de la botanique/Mary_Okwakol/Mary_Okwakol.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Mary_Okwakol/Mary_Okwakol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie Jossy Nakhanda Okwakol (née en 1951) est une zoologiste ougandaise, professeure d'université, et administratrice d'université. Elle est l'actuelle vice-chancelière de l'Université de Busitema, l'une des neuf universités publiques en Ouganda. Elle occupe ce poste depuis octobre 2006[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Jossy Nakhanda Okwakol (née en 1951) est une zoologiste ougandaise, professeure d'université, et administratrice d'université. Elle est l'actuelle vice-chancelière de l'Université de Busitema, l'une des neuf universités publiques en Ouganda. Elle occupe ce poste depuis octobre 2006.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Enfance et éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est née dans le village de Namunyumya, dans le District d'Iganga, région de l'est de l'Ouganda, vers 1951. Elle est scolarisée à l'École Primaire Mixte de Namunyumya, puis au Mount Saint Mary's College de Namagunga pour son diplôme d'études secondaires[2].
-Elle est titulaire du diplôme d'un Baccalauréat universitaire en sciences en Zoologie, obtenu en 1974, à l'Université Makerere, la plus ancienne université en Afrique de l'Est. Elle est également titulaire du diplôme de Maîtrise universitaire ès sciences en Zoologie, obtenu en 1976, également à l'Université Makerere, de même que son diplôme de Doctorat (PhD) en Zoologie en 1992[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est née dans le village de Namunyumya, dans le District d'Iganga, région de l'est de l'Ouganda, vers 1951. Elle est scolarisée à l'École Primaire Mixte de Namunyumya, puis au Mount Saint Mary's College de Namagunga pour son diplôme d'études secondaires.
+Elle est titulaire du diplôme d'un Baccalauréat universitaire en sciences en Zoologie, obtenu en 1974, à l'Université Makerere, la plus ancienne université en Afrique de l'Est. Elle est également titulaire du diplôme de Maîtrise universitaire ès sciences en Zoologie, obtenu en 1976, également à l'Université Makerere, de même que son diplôme de Doctorat (PhD) en Zoologie en 1992.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir obtenu son diplôme à Makerere en 1974, Marie Okwakol est invitée à la Faculté des Sciences en tant qu'Assistante chargée de cours. Elle a immédiatement entrepris une Maîtrise en études et obtient son diplôme en 1976. Elle est nommée maître de conférences. Elle s'inscrit dans le programme de Doctorat à l'Université d'Oxford au Royaume-Uni, mais a été incapable de continuer en raison de ses responsabilités familiales en Ouganda. Elle part à Makerere et obtient son diplôme en 1992. Depuis, elle est nommée Professeure. À la formation de l'Université de Gulu en 2004, elle est nommée Vice-Chancelière, et elle a exercé cette fonction jusqu'à sa nomination comme Vice-Chancelière de l'Université de Busitema en 2006[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir obtenu son diplôme à Makerere en 1974, Marie Okwakol est invitée à la Faculté des Sciences en tant qu'Assistante chargée de cours. Elle a immédiatement entrepris une Maîtrise en études et obtient son diplôme en 1976. Elle est nommée maître de conférences. Elle s'inscrit dans le programme de Doctorat à l'Université d'Oxford au Royaume-Uni, mais a été incapable de continuer en raison de ses responsabilités familiales en Ouganda. Elle part à Makerere et obtient son diplôme en 1992. Depuis, elle est nommée Professeure. À la formation de l'Université de Gulu en 2004, elle est nommée Vice-Chancelière, et elle a exercé cette fonction jusqu'à sa nomination comme Vice-Chancelière de l'Université de Busitema en 2006.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Autres responsabilités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Okwakol est membre du Forum for African Women Educationalists (FAWE), une Organisation non gouvernementale (ONG) pan-Africaine, fondée en 1992 et active dans 32 pays africains. Le FAWE vise à autonomiser les filles et les femmes à travers l'éducation. Ses membres sont des militants des droits humains, des spécialistes du genre, des chercheurs, des responsables des politiques d'éducation, des vice-recteurs d'université et les ministres de l'éducation. L'organisation a son siège à Nairobi, au Kenya, et possède des bureaux régionaux à Dakar au Sénégal[4]. En mai 2014, elle est nommée Présidente de l'Uganda National Examinations Board (UNEB)[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Okwakol est membre du Forum for African Women Educationalists (FAWE), une Organisation non gouvernementale (ONG) pan-Africaine, fondée en 1992 et active dans 32 pays africains. Le FAWE vise à autonomiser les filles et les femmes à travers l'éducation. Ses membres sont des militants des droits humains, des spécialistes du genre, des chercheurs, des responsables des politiques d'éducation, des vice-recteurs d'université et les ministres de l'éducation. L'organisation a son siège à Nairobi, au Kenya, et possède des bureaux régionaux à Dakar au Sénégal. En mai 2014, elle est nommée Présidente de l'Uganda National Examinations Board (UNEB).
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Okwakol a publié de nombreux articles dans des revues professionnelles et a écrit des chapitres de livres scientifiques relatifs à ses domaines de spécialisation.
 Okwakol, M.J.N. &amp; Sekamatte, M.B. 2007. Soil macrofauna research in ecosystems in Uganda, African Journal of Ecology, 45 Suppl. 2.
